--- a/static/excel/直属变更.xlsx
+++ b/static/excel/直属变更.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Documents/project/pig-ui/static/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="12380"/>
+    <workbookView windowWidth="27920" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,19 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$C$7:$Q$7</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>填写须知：</t>
   </si>
@@ -43,10 +30,7 @@
     <t>2、Excel中红色表头字段为必填字段，黑色字段为选填字段；</t>
   </si>
   <si>
-    <t>3、支持国内、国际手机号（国内手机号直接输入手机号即可；国际手机号必须包含加号以及国家地区码，格式示例：“+85259****24”）。</t>
-  </si>
-  <si>
-    <t>4、部门：上下级部门间用‘|’隔开，且从最上级部门开始，例如"A端事业部|智能投研部"；</t>
+    <t>3、支持国内手机号（国内手机号直接输入手机号即可）。</t>
   </si>
   <si>
     <t>行号</t>
@@ -55,36 +39,80 @@
     <t>员工工号</t>
   </si>
   <si>
+    <t>所在城市
+变更时间</t>
+  </si>
+  <si>
     <t>所在城市</t>
   </si>
   <si>
+    <t>物理职场
+变更时间</t>
+  </si>
+  <si>
     <t>物理职场</t>
   </si>
   <si>
+    <t>直属上级
+变更时间</t>
+  </si>
+  <si>
     <t>直属上级工号</t>
   </si>
   <si>
+    <t>合伙人变
+更时间</t>
+  </si>
+  <si>
     <t>合伙人工号</t>
   </si>
   <si>
+    <t>区域总变
+更时间</t>
+  </si>
+  <si>
     <t>区域总工号</t>
   </si>
   <si>
+    <t>区域副总
+变更时间</t>
+  </si>
+  <si>
     <t>区域副总工号</t>
   </si>
   <si>
+    <t>城市总
+变更时间</t>
+  </si>
+  <si>
     <t>城市总工号</t>
   </si>
   <si>
+    <t>城市副总
+变更时间</t>
+  </si>
+  <si>
     <t>城市副总工号</t>
   </si>
   <si>
+    <t>团队经理
+变更时间</t>
+  </si>
+  <si>
     <t>团队经理工号</t>
   </si>
   <si>
+    <t>公司
+变更时间</t>
+  </si>
+  <si>
     <t>公司</t>
   </si>
   <si>
+    <t>区域
+变更时间</t>
+  </si>
+  <si>
     <t>区域</t>
   </si>
   <si>
@@ -94,15 +122,26 @@
     <t>部门</t>
   </si>
   <si>
+    <t>职位
+变更时间</t>
+  </si>
+  <si>
     <t>职位</t>
   </si>
   <si>
+    <t>职级
+变更时间</t>
+  </si>
+  <si>
     <t>职级</t>
   </si>
   <si>
     <t>SX001275</t>
   </si>
   <si>
+    <t>2018.01.01</t>
+  </si>
+  <si>
     <t>上海</t>
   </si>
   <si>
@@ -152,74 +191,23 @@
   </si>
   <si>
     <t>R5</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在城市变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理职场变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>直属上级变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合伙人变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域总变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域副总变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市总变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市副总变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队经理变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>职级变更时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -227,41 +215,361 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="楷体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="楷体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11.25"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -284,13 +592,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,9 +851,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,17 +872,64 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -588,333 +1191,331 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AD7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8285714285714" defaultRowHeight="22" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.85714285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8285714285714" style="2"/>
+    <col min="3" max="3" width="14.8571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.8571428571429" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.6642857142857" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.8285714285714" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.4285714285714" style="2" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.8571428571429" style="2" customWidth="1"/>
     <col min="15" max="15" width="17.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="2"/>
-    <col min="23" max="23" width="15.83203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="2"/>
-    <col min="25" max="25" width="15.1640625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="12.7142857142857" style="3" customWidth="1"/>
+    <col min="17" max="17" width="12.3285714285714" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.4285714285714" style="3" customWidth="1"/>
+    <col min="19" max="19" width="23.6642857142857" style="3" customWidth="1"/>
+    <col min="20" max="20" width="15.2857142857143" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.8571428571429" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.8285714285714" style="2"/>
+    <col min="23" max="23" width="15.8571428571429" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.8285714285714" style="2"/>
+    <col min="25" max="25" width="15.1428571428571" style="2" customWidth="1"/>
+    <col min="26" max="26" width="10.8285714285714" style="2"/>
     <col min="27" max="27" width="15" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="2"/>
-    <col min="29" max="29" width="14.6640625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="2"/>
+    <col min="28" max="28" width="10.8285714285714" style="2"/>
+    <col min="29" max="29" width="14.7142857142857" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="10.8285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:16">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="7" ht="44" spans="1:30">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:30">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="AC8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +1526,6 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:P5"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F5">
       <formula1>"男,女"</formula1>
@@ -946,92 +1546,95 @@
       <formula1>"已实名认证,未实名认证,实名认证已过期"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8285714285714" defaultRowHeight="19" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.1642857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/excel/直属变更.xlsx
+++ b/static/excel/直属变更.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28280" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -798,16 +801,16 @@
       <c r="V7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AA7" s="5" t="s">
